--- a/ePICreator/Calcio_Vitamina D.xlsx
+++ b/ePICreator/Calcio_Vitamina D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/vulcan-eproduct-info/ePICreator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F12161-BD46-324F-9354-F0788B751936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6450E2A-6278-A849-AD25-3245FDE62073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="169">
   <si>
     <t>id</t>
   </si>
@@ -380,9 +380,6 @@
   </si>
   <si>
     <t>packaging_quantity</t>
-  </si>
-  <si>
-    <t>cc</t>
   </si>
   <si>
     <t>Calcium Carbonate</t>
@@ -1007,7 +1004,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1024,7 +1021,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1382,7 +1379,7 @@
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
         <v>106</v>
@@ -1391,7 +1388,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="18">
         <v>100000073681</v>
@@ -1487,10 +1484,10 @@
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
         <v>115</v>
-      </c>
-      <c r="C2" t="s">
-        <v>116</v>
       </c>
       <c r="D2" t="s">
         <v>42</v>
@@ -1505,10 +1502,10 @@
         <v>43</v>
       </c>
       <c r="I2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
@@ -1573,7 +1570,7 @@
         <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1646,8 +1643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1709,14 +1706,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>114</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="C2" s="3"/>
       <c r="D2" s="3" t="s">
         <v>57</v>
       </c>
@@ -1724,32 +1719,32 @@
         <v>59</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -1824,10 +1819,10 @@
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
         <v>115</v>
-      </c>
-      <c r="C2" t="s">
-        <v>116</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -1848,16 +1843,16 @@
         <v>2500</v>
       </c>
       <c r="L2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
         <v>118</v>
-      </c>
-      <c r="C3" t="s">
-        <v>119</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -1878,16 +1873,16 @@
         <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" t="s">
         <v>120</v>
-      </c>
-      <c r="C4" t="s">
-        <v>121</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1905,18 +1900,18 @@
         <v>8</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1937,15 +1932,15 @@
         <v>396.44</v>
       </c>
       <c r="L5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" t="s">
         <v>124</v>
-      </c>
-      <c r="C6" t="s">
-        <v>125</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
@@ -1966,15 +1961,15 @@
         <v>3.68</v>
       </c>
       <c r="L6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" t="s">
         <v>165</v>
-      </c>
-      <c r="C7" t="s">
-        <v>166</v>
       </c>
       <c r="D7" t="s">
         <v>8</v>
@@ -1995,18 +1990,18 @@
         <v>0.73</v>
       </c>
       <c r="L7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" t="s">
         <v>126</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>127</v>
-      </c>
-      <c r="D8" t="s">
-        <v>128</v>
       </c>
       <c r="E8">
         <v>100000072082</v>
@@ -2017,13 +2012,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C9" t="s">
         <v>129</v>
       </c>
-      <c r="C9" t="s">
-        <v>130</v>
-      </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E9">
         <v>100000072082</v>
@@ -2034,13 +2029,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
         <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E10">
         <v>100000072082</v>
@@ -2051,13 +2046,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
         <v>132</v>
       </c>
-      <c r="C11" t="s">
-        <v>133</v>
-      </c>
       <c r="D11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E11">
         <v>100000072082</v>
@@ -2068,13 +2063,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" t="s">
         <v>134</v>
       </c>
-      <c r="C12" t="s">
-        <v>135</v>
-      </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E12">
         <v>100000072082</v>
@@ -2085,13 +2080,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B13" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" t="s">
         <v>136</v>
       </c>
-      <c r="C13" t="s">
-        <v>137</v>
-      </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E13">
         <v>100000072082</v>
@@ -2154,7 +2149,7 @@
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C2">
         <v>68290</v>
@@ -2163,7 +2158,7 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F2" s="18">
         <v>100000073681</v>
@@ -2185,7 +2180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -2270,25 +2265,25 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="D2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" t="s">
         <v>140</v>
       </c>
-      <c r="C2" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" t="s">
-        <v>169</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>141</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>142</v>
       </c>
-      <c r="G2" t="s">
-        <v>143</v>
-      </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I2" t="s">
         <v>103</v>
@@ -2380,7 +2375,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B2" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
         <v>106</v>
@@ -2401,7 +2396,7 @@
         <v>33</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J2" t="s">
         <v>102</v>
@@ -2522,13 +2517,13 @@
         <v>85</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -2537,7 +2532,7 @@
         <v>100000155527</v>
       </c>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I2">
         <v>123456</v>
@@ -2552,13 +2547,13 @@
         <v>30</v>
       </c>
       <c r="M2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2618,7 +2613,7 @@
     <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="11">
         <v>68290</v>
@@ -2630,7 +2625,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
         <v>46</v>

--- a/ePICreator/Calcio_Vitamina D.xlsx
+++ b/ePICreator/Calcio_Vitamina D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6450E2A-6278-A849-AD25-3245FDE62073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA804D2-C6DB-604D-A5F4-50CC90B222F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -811,10 +811,10 @@
     <t>es</t>
   </si>
   <si>
-    <t>https://cima.aemps.es/ids|https://www.who-umc.org/phpid</t>
-  </si>
-  <si>
     <t>68290|0xF79CABF272B6A7EEF104DDDA44E82716</t>
+  </si>
+  <si>
+    <t>https://spor.ema.europa.eu/pmswi|https://www.who-umc.org/phpid</t>
   </si>
 </sst>
 </file>
@@ -1643,7 +1643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2180,8 +2180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2268,10 +2268,10 @@
         <v>139</v>
       </c>
       <c r="C2" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
         <v>167</v>
-      </c>
-      <c r="D2" t="s">
-        <v>168</v>
       </c>
       <c r="E2" t="s">
         <v>140</v>

--- a/ePICreator/Calcio_Vitamina D.xlsx
+++ b/ePICreator/Calcio_Vitamina D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA804D2-C6DB-604D-A5F4-50CC90B222F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA0E3B4-368B-C949-A388-1870C79EF23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="171">
   <si>
     <t>id</t>
   </si>
@@ -815,6 +815,12 @@
   </si>
   <si>
     <t>https://spor.ema.europa.eu/pmswi|https://www.who-umc.org/phpid</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>MedicinalProduct</t>
   </si>
 </sst>
 </file>
@@ -1527,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1556,7 +1562,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1571,6 +1577,9 @@
       </c>
       <c r="E2" t="s">
         <v>149</v>
+      </c>
+      <c r="F2" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1644,7 +1653,7 @@
   <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2180,7 +2189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2566,8 +2575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2607,7 +2616,7 @@
         <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>12</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="19" x14ac:dyDescent="0.2">
@@ -2638,6 +2647,9 @@
       </c>
       <c r="J2" t="s">
         <v>103</v>
+      </c>
+      <c r="K2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="19" x14ac:dyDescent="0.2">

--- a/ePICreator/Calcio_Vitamina D.xlsx
+++ b/ePICreator/Calcio_Vitamina D.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaoalmeida/Desktop/hl7Europe/gravitate/gravitate-health/ePICreator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA0E3B4-368B-C949-A388-1870C79EF23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C75A2DF-82C5-C245-BE6E-072F42CC69E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AdministrableProductDefinition" sheetId="1" r:id="rId1"/>
@@ -1027,9 +1027,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1067,7 +1067,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1173,7 +1173,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1315,7 +1315,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1652,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2575,7 +2575,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
